--- a/va_facility_data_2025-02-20/Williston VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Williston%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Williston VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Williston%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8228da04b166476c9278b5ad41b446c1"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re12f0f970e5e4bb0b92e367ca0f12e3b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R03c8e2e1e50c4edcb7a2ae4d7862b31f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R39aff04e74b649289b5b1961d3f4e776"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R55bc31e3377e4c4180a0c5c48c16edb9"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7db55a4565df4d0c823698be4065ca00"/>
   </x:sheets>
 </x:workbook>
 </file>
